--- a/FoilReactions.xlsx
+++ b/FoilReactions.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Catherine/Desktop/Berkeley/Capstone/PeakFitting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A07CA6F3-4037-524B-862A-493295B6B297}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA2A8665-23CD-A342-81A7-33959752DCC8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="16580" windowHeight="15220" xr2:uid="{5A4465BB-4EDE-5B48-A39C-217FA7E67891}"/>
+    <workbookView xWindow="3460" yWindow="460" windowWidth="16580" windowHeight="15220" xr2:uid="{5A4465BB-4EDE-5B48-A39C-217FA7E67891}"/>
   </bookViews>
   <sheets>
     <sheet name="FoilReactions" sheetId="1" r:id="rId1"/>
     <sheet name="IsotopeGammaDecay" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="100">
   <si>
     <t>Foil</t>
   </si>
@@ -388,12 +388,81 @@
   <si>
     <t>14.1s</t>
   </si>
+  <si>
+    <t>50.563d</t>
+  </si>
+  <si>
+    <t>t1/2(s)</t>
+  </si>
+  <si>
+    <t>106.627d</t>
+  </si>
+  <si>
+    <t>79.8h</t>
+  </si>
+  <si>
+    <t>64h</t>
+  </si>
+  <si>
+    <t>e+, b-</t>
+  </si>
+  <si>
+    <t>70.86d</t>
+  </si>
+  <si>
+    <t>35.60h</t>
+  </si>
+  <si>
+    <t>e+,b-</t>
+  </si>
+  <si>
+    <t>7.6E+4y</t>
+  </si>
+  <si>
+    <t>5.2714y</t>
+  </si>
+  <si>
+    <t>1.50m</t>
+  </si>
+  <si>
+    <t>0.30s</t>
+  </si>
+  <si>
+    <t>2.5172h</t>
+  </si>
+  <si>
+    <t>78.41h</t>
+  </si>
+  <si>
+    <t>*(relative intensity)</t>
+  </si>
+  <si>
+    <t>83.4d</t>
+  </si>
+  <si>
+    <t>1.53E+6y</t>
+  </si>
+  <si>
+    <t>64.02d</t>
+  </si>
+  <si>
+    <t>16.91h</t>
+  </si>
+  <si>
+    <t>58.51d</t>
+  </si>
+  <si>
+    <t>3.54h</t>
+  </si>
+  <si>
+    <t>18.7m</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -432,13 +501,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -453,12 +534,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1759,15 +1842,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4381D8-B1AF-584F-8459-5020C8BF83BF}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1783,8 +1869,11 @@
       <c r="E1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1800,8 +1889,16 @@
       <c r="E2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <f>IF(RIGHT(E2)="y",LEFT(E2,LEN(E2)-1)*365*24*3600,IF(RIGHT(E2)="d",LEFT(E2,LEN(E2)-1)*24*3600,IF(RIGHT(E2)="h",LEFT(E2,LEN(E2)-1)*3600,IF(RIGHT(E2)="m",LEFT(E2,LEN(E2)-1)*60,LEFT(E2,LEN(E2)-1)))))</f>
+        <v>2.5354943999999999E+23</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(E2,LEN(E2)-1)</f>
+        <v>8.04E15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1817,8 +1914,12 @@
       <c r="E3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <f t="shared" ref="F3:F43" si="0">IF(RIGHT(E3)="y",LEFT(E3,LEN(E3)-1)*365*24*3600,IF(RIGHT(E3)="d",LEFT(E3,LEN(E3)-1)*24*3600,IF(RIGHT(E3)="h",LEFT(E3,LEN(E3)-1)*3600,IF(RIGHT(E3)="m",LEFT(E3,LEN(E3)-1)*60,LEFT(E3,LEN(E3)-1)))))</f>
+        <v>892.80000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1834,8 +1935,12 @@
       <c r="E4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>892.80000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1851,8 +1956,12 @@
       <c r="E5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>892.80000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1860,7 +1969,7 @@
         <v>70</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>2.72</v>
@@ -1868,8 +1977,12 @@
       <c r="E6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>242326.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1885,8 +1998,12 @@
       <c r="E7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>71.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1902,8 +2019,12 @@
       <c r="E8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>71.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1919,8 +2040,12 @@
       <c r="E9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>3849984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1936,16 +2061,33 @@
       <c r="E10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>3849984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1961,160 +2103,651 @@
       <c r="E12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>587.1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>4368643.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D14">
+        <v>1836.0630000000001</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>9212572.7999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="D15" s="6">
+        <v>484.80500000000001</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>287280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>933.7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>230400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17">
+        <v>0.99</v>
+      </c>
+      <c r="D17">
+        <v>810.8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>6122304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18">
+        <v>0.81</v>
+      </c>
+      <c r="D18">
+        <v>1377</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>128160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19">
+        <v>0.98</v>
+      </c>
+      <c r="D19">
+        <v>158.38</v>
+      </c>
+      <c r="E19">
+        <v>6.077</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D20">
+        <v>6930</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>2396736000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D21">
+        <v>1332.501</v>
+      </c>
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>166238870.40000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24">
+        <v>0.85</v>
+      </c>
+      <c r="D24">
+        <v>67.412000000000006</v>
+      </c>
+      <c r="E24">
+        <v>1.65</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27">
+        <v>0.84</v>
+      </c>
+      <c r="D27">
+        <v>1172.9000000000001</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29">
+        <v>0.1</v>
+      </c>
+      <c r="D29">
+        <v>930.81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>0.30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30">
+        <v>0.24</v>
+      </c>
+      <c r="D30">
+        <v>1481.84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>9061.92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>908.64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>282276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32">
+        <v>392.87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>7205760.0000000009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D34">
+        <v>1204.77</v>
+      </c>
+      <c r="E34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>5055264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D37">
+        <v>934.46</v>
+      </c>
+      <c r="E37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>12744</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38">
+        <v>30.77</v>
+      </c>
+      <c r="E38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>48250080000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D39">
+        <v>918.74</v>
+      </c>
+      <c r="E39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40">
+        <v>0.54</v>
+      </c>
+      <c r="D40">
+        <v>756.72900000000004</v>
+      </c>
+      <c r="E40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>5531328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D41">
+        <v>1750.42</v>
+      </c>
+      <c r="E41">
+        <v>5.34</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43">
+        <v>0.93</v>
+      </c>
+      <c r="D43">
+        <v>743.36</v>
+      </c>
+      <c r="E43" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>60876</v>
       </c>
     </row>
   </sheetData>
